--- a/1_Crawler/PY/SongGuo1.xlsx
+++ b/1_Crawler/PY/SongGuo1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="984" uniqueCount="477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="466">
   <si>
     <t>店家名稱</t>
   </si>
@@ -70,1018 +70,1027 @@
     <t>DR.MANGO</t>
   </si>
   <si>
+    <t>MR.J小舖</t>
+  </si>
+  <si>
+    <t>草根王市集</t>
+  </si>
+  <si>
+    <t>KASO SHOP</t>
+  </si>
+  <si>
+    <t>ANDYMAY2</t>
+  </si>
+  <si>
+    <t>ABC小中大尺碼服飾</t>
+  </si>
+  <si>
+    <t>小魚創意行銷團購批發</t>
+  </si>
+  <si>
+    <t>JIYI 購物館</t>
+  </si>
+  <si>
+    <t>嚴選市集</t>
+  </si>
+  <si>
+    <t>林打商號</t>
+  </si>
+  <si>
+    <t>長野匠優質生活</t>
+  </si>
+  <si>
+    <t>新番組</t>
+  </si>
+  <si>
+    <t>哇哇哇購物網</t>
+  </si>
+  <si>
+    <t>麥威夏</t>
+  </si>
+  <si>
+    <t>EHD宜紅</t>
+  </si>
+  <si>
+    <t>仁麗有限公司</t>
+  </si>
+  <si>
+    <t>恩銘企業社</t>
+  </si>
+  <si>
     <t>三花棉業</t>
   </si>
   <si>
-    <t>捷樂米行銷有限公司</t>
-  </si>
-  <si>
-    <t>草根王市集</t>
-  </si>
-  <si>
-    <t>KASO SHOP</t>
-  </si>
-  <si>
-    <t>ANDYMAY2</t>
-  </si>
-  <si>
-    <t>JinG</t>
-  </si>
-  <si>
-    <t>ABC小中大尺碼服飾</t>
-  </si>
-  <si>
-    <t>小魚創意行銷團購批發</t>
-  </si>
-  <si>
-    <t>JIYI 購物館</t>
-  </si>
-  <si>
-    <t>嚴選市集</t>
-  </si>
-  <si>
-    <t>長野匠優質生活</t>
-  </si>
-  <si>
-    <t>林打商號</t>
-  </si>
-  <si>
-    <t>哇哇哇購物網</t>
-  </si>
-  <si>
-    <t>新番組</t>
+    <t>曼曼寶貝</t>
+  </si>
+  <si>
+    <t>NEW FORCE</t>
+  </si>
+  <si>
+    <t>SKIP四季織</t>
+  </si>
+  <si>
+    <t>一家人服飾</t>
+  </si>
+  <si>
+    <t>NEW STAR</t>
   </si>
   <si>
     <t>他她好鞋網</t>
   </si>
   <si>
-    <t>EHD宜紅</t>
-  </si>
-  <si>
-    <t>恩銘企業社</t>
-  </si>
-  <si>
-    <t>麥威夏</t>
-  </si>
-  <si>
-    <t>仁麗有限公司</t>
-  </si>
-  <si>
-    <t>曼曼寶貝</t>
-  </si>
-  <si>
-    <t>NEW FORCE</t>
-  </si>
-  <si>
-    <t>SKIP四季織</t>
-  </si>
-  <si>
-    <t>NEW STAR</t>
-  </si>
-  <si>
-    <t>★旺仔優質店鋪/Ooperstar★</t>
-  </si>
-  <si>
     <t>i TYPE</t>
   </si>
   <si>
-    <t>伊登詩健康生活家</t>
-  </si>
-  <si>
     <t>優衣購</t>
   </si>
   <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>127</t>
-  </si>
-  <si>
-    <t>68</t>
-  </si>
-  <si>
-    <t>157</t>
-  </si>
-  <si>
-    <t>103</t>
+    <t>51</t>
+  </si>
+  <si>
+    <t>137</t>
+  </si>
+  <si>
+    <t>677</t>
+  </si>
+  <si>
+    <t>129</t>
   </si>
   <si>
     <t>36</t>
   </si>
   <si>
+    <t>421</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>479</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>369</t>
+  </si>
+  <si>
+    <t>451</t>
+  </si>
+  <si>
+    <t>176</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>148</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>162</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>4.5</t>
+  </si>
+  <si>
+    <t>4.3</t>
+  </si>
+  <si>
+    <t>4.4</t>
+  </si>
+  <si>
+    <t>4.6</t>
+  </si>
+  <si>
+    <t>4.7</t>
+  </si>
+  <si>
+    <t>4.8</t>
+  </si>
+  <si>
+    <t>0.7</t>
+  </si>
+  <si>
+    <t>0.8</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0.6</t>
+  </si>
+  <si>
+    <t>0.9</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>99%</t>
+  </si>
+  <si>
+    <t>92%</t>
+  </si>
+  <si>
+    <t>98%</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>二代歐巴迷彩！四季透氣工作褲 （彈力褲頭）</t>
+  </si>
+  <si>
+    <t>數位迷彩彈力戰術工作褲</t>
+  </si>
+  <si>
+    <t>拉鍊口袋速乾透氣休閒運動短褲</t>
+  </si>
+  <si>
+    <t>冠軍款！透氣彈力工作褲</t>
+  </si>
+  <si>
+    <t>新款兩件式三穿保暖外套</t>
+  </si>
+  <si>
+    <t>美國軍規強固型尼龍腰帶(多色任選)</t>
+  </si>
+  <si>
+    <t>超高CP！經典熱賣款 美式高磅耐磨防割彈力多口袋工作褲</t>
+  </si>
+  <si>
+    <t>【DaoDi】新眼鏡蛇釦軍規尼龍戰術腰帶(多色任選)</t>
+  </si>
+  <si>
+    <t>日式無痕冰絲內褲</t>
+  </si>
+  <si>
+    <t>歐巴迷彩輕量耐磨工作短褲（鬆緊帶褲頭）</t>
+  </si>
+  <si>
+    <t>【ABC小中大尺碼服飾】大尺碼防風防水抗寒衝鋒褲 S-5XL</t>
+  </si>
+  <si>
+    <t>【小魚嚴選】冬季超保暖加厚羊毛男襪</t>
+  </si>
+  <si>
+    <t>舒適透氣冰絲涼感網孔男士內褲</t>
+  </si>
+  <si>
+    <t>【嚴選市集】軍規硬漢透氣耐磨工作靴 (工作鞋 馬丁鞋 馬丁靴 登山靴 軍靴 )</t>
+  </si>
+  <si>
+    <t>熱銷千件！美式彈力棉工作褲</t>
+  </si>
+  <si>
+    <t>大尺碼M~8XL情侶款登山戶外休閒褲 高品質防風防水禦寒衝鋒褲 登山釣魚機能工作褲 【16002】</t>
+  </si>
+  <si>
+    <t>加厚保暖刷毛專櫃級彈性牛仔褲2色任選(28~40腰)</t>
+  </si>
+  <si>
+    <t>【1入=6件】ALiADo 零觸感透氣平口褲超值6件組</t>
+  </si>
+  <si>
+    <t>英倫風格紋休閒褲 抗皺磨毛男長褲 韓版微彈顯瘦修身長褲【 LX68001】</t>
+  </si>
+  <si>
+    <t>超高ＣＰ！經典熱銷 重磅彈力透氣多口袋工作褲</t>
+  </si>
+  <si>
+    <t>夏日熱銷推薦！絕對涼感工作褲 彈力透氣多口袋休閒褲</t>
+  </si>
+  <si>
+    <t>4D無痕透氣男士冰絲隱形內褲</t>
+  </si>
+  <si>
+    <t>【新番組】多功能防水耐刮側背腰包</t>
+  </si>
+  <si>
+    <t>男士多功能卡層手機錢包</t>
+  </si>
+  <si>
+    <t>男女防風防水衝鋒外套</t>
+  </si>
+  <si>
+    <t>戶外防風防雨加厚加絨褲(3色)</t>
+  </si>
+  <si>
+    <t>【EHD】黃金絨刷毛發熱保暖背心</t>
+  </si>
+  <si>
+    <t>狩獵級迷彩抗悶工作褲</t>
+  </si>
+  <si>
+    <t>【父親節活動】真皮牛皮汽車男女鑰匙包-4色</t>
+  </si>
+  <si>
+    <t>韓版彈力鬆緊帶速乾透氣休閒直筒長褲 L03399</t>
+  </si>
+  <si>
+    <t>高效複合奈米抗菌防臭襪子(5色)</t>
+  </si>
+  <si>
+    <t>真皮加大風琴式RFID防盜卡包</t>
+  </si>
+  <si>
+    <t>【Sun Flower三花】三花彈性貼身平口褲.四角褲.內褲.男內褲(3件組)</t>
+  </si>
+  <si>
+    <t>美式立體側袋彈力工作褲（四季款）</t>
+  </si>
+  <si>
+    <t>【Sun Flower三花】三花平口褲.四角褲.內褲.男內褲(3件組)_暢銷混色款</t>
+  </si>
+  <si>
+    <t>【Sun Flower三花】三花針織平口褲.四角褲.內褲.男內褲(3件組)_暢銷混色款</t>
+  </si>
+  <si>
+    <t>加大尺碼 高磅耐磨防割彈力多口袋工作褲 42腰~50腰</t>
+  </si>
+  <si>
+    <t>韓版修身顯瘦時尚長袖套裝</t>
+  </si>
+  <si>
+    <t>飛織透氣工作休閒鞋</t>
+  </si>
+  <si>
+    <t>【CBright】輕盈保暖 三段式智能控溫發熱背心 電熱 發熱衣</t>
+  </si>
+  <si>
+    <t>男女款-舒適優質內刷毛保暖衣(高領、圓領)</t>
+  </si>
+  <si>
+    <t>歐美男士拉鍊大容量手機錢包皮夾長夾</t>
+  </si>
+  <si>
+    <t>錢包 皮夾 長夾 手拿包 皮包 手機包 男生錢包 男士皮夾 皮夾 錢夾</t>
+  </si>
+  <si>
+    <t>經典款連帽加絨厚保暖外套長褲二件組(四色任選)</t>
+  </si>
+  <si>
+    <t>人氣熱銷款 舒適彈力多口袋牛仔工作褲 M-5L</t>
+  </si>
+  <si>
+    <t>韓版修身抗起球保暖長袖束口T恤（兩款任選)</t>
+  </si>
+  <si>
+    <t>迷彩款連帽加絨厚保暖外套長褲二件組(三色任選)</t>
+  </si>
+  <si>
+    <t>【Sun Flower三花】三花針織平口褲.四角褲.內褲.男內褲(3件組)</t>
+  </si>
+  <si>
+    <t>單肩背包 簡約防水極簡素面多口袋斜胸包後背包包 NEW STAR BK250</t>
+  </si>
+  <si>
+    <t>超暖加厚登山防風雨抓絨衝鋒褲</t>
+  </si>
+  <si>
+    <t>MIT!抗縮水不起毛球保暖內刷毛棉褲</t>
+  </si>
+  <si>
+    <t>(男) SHIBORDIN 多用途戶外靴 棕/黑 他她好鞋網</t>
+  </si>
+  <si>
+    <t>【i TYPE】高質感純棉條紋質感四角男內褲</t>
+  </si>
+  <si>
+    <t>【Pierre Cardin皮爾卡登】極速瞬熱陽離子暖絨長袖衫(圓領/V領 三色可選)</t>
+  </si>
+  <si>
+    <t>$390</t>
+  </si>
+  <si>
+    <t>$461</t>
+  </si>
+  <si>
+    <t>$186</t>
+  </si>
+  <si>
+    <t>$399</t>
+  </si>
+  <si>
+    <t>$950</t>
+  </si>
+  <si>
+    <t>$159</t>
+  </si>
+  <si>
+    <t>$454</t>
+  </si>
+  <si>
+    <t>$125</t>
+  </si>
+  <si>
+    <t>$87</t>
+  </si>
+  <si>
+    <t>$250</t>
+  </si>
+  <si>
+    <t>$499</t>
+  </si>
+  <si>
+    <t>$49</t>
+  </si>
+  <si>
+    <t>$69</t>
+  </si>
+  <si>
+    <t>$720</t>
+  </si>
+  <si>
+    <t>$504</t>
+  </si>
+  <si>
+    <t>$440</t>
+  </si>
+  <si>
+    <t>$437</t>
+  </si>
+  <si>
+    <t>$89</t>
+  </si>
+  <si>
+    <t>$225</t>
+  </si>
+  <si>
+    <t>$839</t>
+  </si>
+  <si>
+    <t>$229</t>
+  </si>
+  <si>
+    <t>$288</t>
+  </si>
+  <si>
+    <t>$525</t>
+  </si>
+  <si>
+    <t>$42</t>
+  </si>
+  <si>
+    <t>$219</t>
+  </si>
+  <si>
+    <t>$840</t>
+  </si>
+  <si>
+    <t>$428</t>
+  </si>
+  <si>
+    <t>$494</t>
+  </si>
+  <si>
+    <t>$699</t>
+  </si>
+  <si>
+    <t>$2688</t>
+  </si>
+  <si>
+    <t>$112</t>
+  </si>
+  <si>
+    <t>$689</t>
+  </si>
+  <si>
+    <t>$359</t>
+  </si>
+  <si>
+    <t>$189</t>
+  </si>
+  <si>
+    <t>$599</t>
+  </si>
+  <si>
+    <t>$625</t>
+  </si>
+  <si>
+    <t>$369</t>
+  </si>
+  <si>
+    <t>$891</t>
+  </si>
+  <si>
+    <t>$50</t>
+  </si>
+  <si>
+    <t>$303</t>
+  </si>
+  <si>
+    <t>$1680</t>
+  </si>
+  <si>
+    <t>$600</t>
+  </si>
+  <si>
+    <t>$1980</t>
+  </si>
+  <si>
+    <t>$9800</t>
+  </si>
+  <si>
+    <t>$690</t>
+  </si>
+  <si>
+    <t>$1880</t>
+  </si>
+  <si>
+    <t>$1280</t>
+  </si>
+  <si>
+    <t>$299</t>
+  </si>
+  <si>
+    <t>$350</t>
+  </si>
+  <si>
+    <t>$1580</t>
+  </si>
+  <si>
+    <t>$1080</t>
+  </si>
+  <si>
+    <t>$890</t>
+  </si>
+  <si>
+    <t>$1290</t>
+  </si>
+  <si>
+    <t>$1200</t>
+  </si>
+  <si>
+    <t>$590</t>
+  </si>
+  <si>
+    <t>$100</t>
+  </si>
+  <si>
+    <t>$450</t>
+  </si>
+  <si>
+    <t>$841</t>
+  </si>
+  <si>
+    <t>$999</t>
+  </si>
+  <si>
+    <t>$4999</t>
+  </si>
+  <si>
+    <t>$300</t>
+  </si>
+  <si>
+    <t>$598</t>
+  </si>
+  <si>
+    <t>$1390</t>
+  </si>
+  <si>
+    <t>$1999</t>
+  </si>
+  <si>
+    <t>$480</t>
+  </si>
+  <si>
+    <t>2.3折</t>
+  </si>
+  <si>
+    <t>2.7折</t>
+  </si>
+  <si>
+    <t>3.1折</t>
+  </si>
+  <si>
+    <t>2折</t>
+  </si>
+  <si>
+    <t>1折</t>
+  </si>
+  <si>
+    <t>2.4折</t>
+  </si>
+  <si>
+    <t>1.8折</t>
+  </si>
+  <si>
+    <t>1.5折</t>
+  </si>
+  <si>
+    <t>3.9折</t>
+  </si>
+  <si>
+    <t>1.6折</t>
+  </si>
+  <si>
+    <t>3折</t>
+  </si>
+  <si>
+    <t>4.6折</t>
+  </si>
+  <si>
+    <t>2.5折</t>
+  </si>
+  <si>
+    <t>4.2折</t>
+  </si>
+  <si>
+    <t>6.5折</t>
+  </si>
+  <si>
+    <t>3.3折</t>
+  </si>
+  <si>
+    <t>4.1折</t>
+  </si>
+  <si>
+    <t>2.8折</t>
+  </si>
+  <si>
+    <t>4.9折</t>
+  </si>
+  <si>
+    <t>10折</t>
+  </si>
+  <si>
+    <t>2.2折</t>
+  </si>
+  <si>
+    <t>7折</t>
+  </si>
+  <si>
+    <t>5.4折</t>
+  </si>
+  <si>
+    <t>3.7折</t>
+  </si>
+  <si>
+    <t>3.2折</t>
+  </si>
+  <si>
+    <t>3.5折</t>
+  </si>
+  <si>
+    <t>4.3折</t>
+  </si>
+  <si>
+    <t>2.9折</t>
+  </si>
+  <si>
+    <t>6.4折</t>
+  </si>
+  <si>
+    <t>6.3折</t>
+  </si>
+  <si>
+    <t>4.1</t>
+  </si>
+  <si>
+    <t>4.9</t>
+  </si>
+  <si>
+    <t>3.8</t>
+  </si>
+  <si>
+    <t>740</t>
+  </si>
+  <si>
+    <t>184</t>
+  </si>
+  <si>
+    <t>156</t>
+  </si>
+  <si>
+    <t>130</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>181</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>2075</t>
+  </si>
+  <si>
+    <t>539</t>
+  </si>
+  <si>
+    <t>930</t>
+  </si>
+  <si>
+    <t>785</t>
+  </si>
+  <si>
+    <t>404</t>
+  </si>
+  <si>
+    <t>512</t>
+  </si>
+  <si>
+    <t>355</t>
+  </si>
+  <si>
+    <t>487</t>
+  </si>
+  <si>
+    <t>548</t>
+  </si>
+  <si>
+    <t>364</t>
+  </si>
+  <si>
+    <t>348</t>
+  </si>
+  <si>
+    <t>541</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
     <t>413</t>
   </si>
   <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>96</t>
-  </si>
-  <si>
-    <t>134</t>
+    <t>335</t>
+  </si>
+  <si>
+    <t>259</t>
+  </si>
+  <si>
+    <t>275</t>
+  </si>
+  <si>
+    <t>256</t>
+  </si>
+  <si>
+    <t>308</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>235</t>
+  </si>
+  <si>
+    <t>315</t>
+  </si>
+  <si>
+    <t>605</t>
+  </si>
+  <si>
+    <t>354</t>
+  </si>
+  <si>
+    <t>185</t>
+  </si>
+  <si>
+    <t>191</t>
+  </si>
+  <si>
+    <t>283</t>
+  </si>
+  <si>
+    <t>121</t>
+  </si>
+  <si>
+    <t>377</t>
+  </si>
+  <si>
+    <t>239</t>
+  </si>
+  <si>
+    <t>169</t>
+  </si>
+  <si>
+    <t>336</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>182</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>178</t>
+  </si>
+  <si>
+    <t>165</t>
+  </si>
+  <si>
+    <t>152</t>
+  </si>
+  <si>
+    <t>118</t>
+  </si>
+  <si>
+    <t>149</t>
   </si>
   <si>
     <t>106</t>
   </si>
   <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>146</t>
+  </si>
+  <si>
     <t>95</t>
   </si>
   <si>
-    <t>58</t>
-  </si>
-  <si>
-    <t>115</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>445</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>117</t>
-  </si>
-  <si>
-    <t>104</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>84</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>4.5</t>
-  </si>
-  <si>
-    <t>4.3</t>
-  </si>
-  <si>
-    <t>4.7</t>
-  </si>
-  <si>
-    <t>4.4</t>
-  </si>
-  <si>
-    <t>4.6</t>
-  </si>
-  <si>
-    <t>4.8</t>
-  </si>
-  <si>
-    <t>0.7</t>
-  </si>
-  <si>
-    <t>0.9</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>0.6</t>
-  </si>
-  <si>
-    <t>0.8</t>
-  </si>
-  <si>
-    <t>0.5</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>99%</t>
-  </si>
-  <si>
-    <t>96%</t>
-  </si>
-  <si>
-    <t>二代歐巴迷彩！四季透氣工作褲 （彈力褲頭）</t>
-  </si>
-  <si>
-    <t>數位迷彩彈力戰術工作褲</t>
-  </si>
-  <si>
-    <t>拉鍊口袋速乾透氣休閒運動短褲</t>
-  </si>
-  <si>
-    <t>冠軍款！透氣彈力工作褲</t>
-  </si>
-  <si>
-    <t>【Sun Flower三花】三花1/4毛巾底運動襪.襪子(12雙組)</t>
-  </si>
-  <si>
-    <t>新款兩件式三穿保暖外套</t>
-  </si>
-  <si>
-    <t>美國軍規強固型尼龍腰帶(多色任選)</t>
-  </si>
-  <si>
-    <t>超高CP！經典熱賣款 美式高磅耐磨防割彈力多口袋工作褲</t>
-  </si>
-  <si>
-    <t>【DaoDi】新眼鏡蛇釦軍規尼龍戰術腰帶(多色任選)</t>
-  </si>
-  <si>
-    <t>日式無痕冰絲內褲</t>
-  </si>
-  <si>
-    <t>歐巴迷彩輕量耐磨工作短褲（鬆緊帶褲頭）</t>
-  </si>
-  <si>
-    <t>防風防水男女保暖連帽外套</t>
-  </si>
-  <si>
-    <t>【ABC小中大尺碼服飾】大尺碼防風防水抗寒衝鋒褲 S-5XL</t>
-  </si>
-  <si>
-    <t>冬季超保暖加厚羊毛男襪</t>
-  </si>
-  <si>
-    <t>舒適透氣冰絲涼感網孔男士內褲</t>
-  </si>
-  <si>
-    <t>【嚴選市集】軍規硬漢透氣耐磨工作靴 (工作鞋 馬丁鞋 馬丁靴 登山靴 軍靴 )</t>
-  </si>
-  <si>
-    <t>【1入=6件】ALiADo 零觸感透氣平口褲超值6件組</t>
-  </si>
-  <si>
-    <t>熱銷千件！美式彈力棉工作褲</t>
-  </si>
-  <si>
-    <t>英倫風格紋休閒褲</t>
-  </si>
-  <si>
-    <t>高品質防風防水禦寒衝鋒褲 戶外登山釣魚機能工作褲</t>
-  </si>
-  <si>
-    <t>加厚保暖刷毛專櫃級彈性牛仔褲2色任選(28~40腰)</t>
-  </si>
-  <si>
-    <t>超高ＣＰ！經典熱銷 重磅彈力透氣多口袋工作褲</t>
-  </si>
-  <si>
-    <t>軍規多口袋透氣工作褲</t>
-  </si>
-  <si>
-    <t>夏日熱銷推薦！絕對涼感工作褲 彈力透氣多口袋休閒褲</t>
-  </si>
-  <si>
-    <t>4D無痕透氣男士冰絲隱形內褲</t>
-  </si>
-  <si>
-    <t>男士多功能卡層手機錢包</t>
-  </si>
-  <si>
-    <t>【新番組】多功能防水耐刮側背腰包</t>
-  </si>
-  <si>
-    <t>SHIBORDIN 止滑耐磨戶外健行登山運動鞋-三色任選</t>
-  </si>
-  <si>
-    <t>狩獵級迷彩抗悶工作褲</t>
-  </si>
-  <si>
-    <t>【EHD】黃金絨刷毛發熱保暖背心</t>
-  </si>
-  <si>
-    <t>【父親節活動】真皮牛皮汽車男女鑰匙包-4色</t>
-  </si>
-  <si>
-    <t>真皮加大風琴式RFID防盜卡包</t>
-  </si>
-  <si>
-    <t>男厚款抗皺免熨彈力西裝褲(2色)</t>
-  </si>
-  <si>
-    <t>【Sun Flower三花】三花彈性貼身平口褲.四角褲.內褲.男內褲(3件組)</t>
-  </si>
-  <si>
-    <t>高效複合奈米抗菌防臭襪子(5色)</t>
-  </si>
-  <si>
-    <t>男女防風防水衝鋒外套</t>
-  </si>
-  <si>
-    <t>韓版彈力鬆緊帶速乾透氣休閒直筒長褲 L03399</t>
-  </si>
-  <si>
-    <t>【Sun Flower三花】三花針織平口褲.四角褲.內褲.男內褲(3件組)_暢銷混色款</t>
-  </si>
-  <si>
-    <t>韓版修身顯瘦時尚長袖套裝</t>
-  </si>
-  <si>
-    <t>【Sun Flower三花】三花平口褲.四角褲.內褲.男內褲(3件組)_暢銷混色款</t>
-  </si>
-  <si>
-    <t>美式立體側袋彈力工作褲（四季款）</t>
-  </si>
-  <si>
-    <t>飛織透氣工作休閒鞋</t>
-  </si>
-  <si>
-    <t>加大尺碼 高磅耐磨防割彈力多口袋工作褲 42腰~50腰</t>
-  </si>
-  <si>
-    <t>戶外防風防雨加厚加絨褲(3色)</t>
-  </si>
-  <si>
-    <t>歐美男士拉鍊大容量手機錢包皮夾長夾</t>
-  </si>
-  <si>
-    <t>(男) SHIBORDIN 簡約時尚款止滑襪套式休閒鞋 藍/黑 他她好鞋網</t>
-  </si>
-  <si>
-    <t>【CBright】輕盈保暖 三段式智能控溫發熱背心 電熱 發熱衣</t>
-  </si>
-  <si>
-    <t>【Sun Flower三花】三花針織平口褲.四角褲.內褲.男內褲(3件組)</t>
-  </si>
-  <si>
-    <t>人氣熱銷款 舒適彈力多口袋牛仔工作褲 M-5L</t>
-  </si>
-  <si>
-    <t>錢包 皮夾 長夾 手拿包 皮包 手機包 男生錢包 男士皮夾 皮夾 錢夾</t>
-  </si>
-  <si>
-    <t>經典款連帽加絨厚保暖外套長褲二件組(四色任選)</t>
-  </si>
-  <si>
-    <t>單肩背包 簡約防水極簡素面多口袋斜胸包後背包包 NEW STAR BK250</t>
-  </si>
-  <si>
-    <t>MIT!抗縮水不起毛球保暖內刷毛棉褲</t>
-  </si>
-  <si>
-    <t>韓版修身抗起球保暖長袖束口T恤（兩款任選)</t>
-  </si>
-  <si>
-    <t>迷彩款連帽加絨厚保暖外套長褲二件組(三色任選)</t>
-  </si>
-  <si>
-    <t>超暖加厚登山防風雨抓絨衝鋒褲</t>
-  </si>
-  <si>
-    <t>男女款-舒適優質內刷毛保暖衣(高領、圓領)</t>
-  </si>
-  <si>
-    <t>(男) SHIBORDIN 多用途戶外靴 棕/黑 他她好鞋網</t>
-  </si>
-  <si>
-    <t>【i TYPE】高質感純棉條紋質感四角男內褲</t>
-  </si>
-  <si>
-    <t>【伊登詩】Edenswear德國進口氧化鋅纖維男生短袖內衣(白)</t>
-  </si>
-  <si>
-    <t>【Pierre Cardin皮爾卡登】極速瞬熱陽離子暖絨長袖衫(圓領/V領 三色可選)</t>
-  </si>
-  <si>
-    <t>$296</t>
-  </si>
-  <si>
-    <t>$461</t>
-  </si>
-  <si>
-    <t>$186</t>
-  </si>
-  <si>
-    <t>$399</t>
-  </si>
-  <si>
-    <t>$790</t>
-  </si>
-  <si>
-    <t>$950</t>
-  </si>
-  <si>
-    <t>$159</t>
-  </si>
-  <si>
-    <t>$454</t>
-  </si>
-  <si>
-    <t>$125</t>
-  </si>
-  <si>
-    <t>$87</t>
-  </si>
-  <si>
-    <t>$250</t>
-  </si>
-  <si>
-    <t>$599</t>
-  </si>
-  <si>
-    <t>$580</t>
-  </si>
-  <si>
-    <t>$49</t>
-  </si>
-  <si>
-    <t>$69</t>
-  </si>
-  <si>
-    <t>$499</t>
-  </si>
-  <si>
-    <t>$720</t>
-  </si>
-  <si>
-    <t>$504</t>
-  </si>
-  <si>
-    <t>$440</t>
-  </si>
-  <si>
-    <t>$459</t>
-  </si>
-  <si>
-    <t>$89</t>
-  </si>
-  <si>
-    <t>$225</t>
-  </si>
-  <si>
-    <t>$764</t>
-  </si>
-  <si>
-    <t>$229</t>
-  </si>
-  <si>
-    <t>$288</t>
-  </si>
-  <si>
-    <t>$219</t>
-  </si>
-  <si>
-    <t>$840</t>
-  </si>
-  <si>
-    <t>$42</t>
-  </si>
-  <si>
-    <t>$839</t>
-  </si>
-  <si>
-    <t>$525</t>
-  </si>
-  <si>
-    <t>$494</t>
-  </si>
-  <si>
-    <t>$428</t>
-  </si>
-  <si>
-    <t>$699</t>
-  </si>
-  <si>
-    <t>$621</t>
-  </si>
-  <si>
-    <t>$2688</t>
-  </si>
-  <si>
-    <t>$359</t>
-  </si>
-  <si>
-    <t>$689</t>
-  </si>
-  <si>
-    <t>$529</t>
-  </si>
-  <si>
-    <t>$369</t>
-  </si>
-  <si>
-    <t>$189</t>
-  </si>
-  <si>
-    <t>$625</t>
-  </si>
-  <si>
-    <t>$112</t>
-  </si>
-  <si>
-    <t>$891</t>
-  </si>
-  <si>
-    <t>$50</t>
-  </si>
-  <si>
-    <t>$1020</t>
-  </si>
-  <si>
-    <t>$303</t>
-  </si>
-  <si>
-    <t>$1680</t>
-  </si>
-  <si>
-    <t>$600</t>
-  </si>
-  <si>
-    <t>$1980</t>
-  </si>
-  <si>
-    <t>$1440</t>
-  </si>
-  <si>
-    <t>$9800</t>
-  </si>
-  <si>
-    <t>$690</t>
-  </si>
-  <si>
-    <t>$1880</t>
-  </si>
-  <si>
-    <t>$1199</t>
-  </si>
-  <si>
-    <t>$1280</t>
-  </si>
-  <si>
-    <t>$299</t>
-  </si>
-  <si>
-    <t>$350</t>
-  </si>
-  <si>
-    <t>$1080</t>
-  </si>
-  <si>
-    <t>$1580</t>
-  </si>
-  <si>
-    <t>$1500</t>
-  </si>
-  <si>
-    <t>$890</t>
-  </si>
-  <si>
-    <t>$1490</t>
-  </si>
-  <si>
-    <t>$590</t>
-  </si>
-  <si>
-    <t>$450</t>
-  </si>
-  <si>
-    <t>$1200</t>
-  </si>
-  <si>
-    <t>$841</t>
-  </si>
-  <si>
-    <t>$100</t>
-  </si>
-  <si>
-    <t>$1290</t>
-  </si>
-  <si>
-    <t>$999</t>
-  </si>
-  <si>
-    <t>$1090</t>
-  </si>
-  <si>
-    <t>$4999</t>
-  </si>
-  <si>
-    <t>$598</t>
-  </si>
-  <si>
-    <t>$1390</t>
-  </si>
-  <si>
-    <t>$1999</t>
-  </si>
-  <si>
-    <t>$300</t>
-  </si>
-  <si>
-    <t>$1820</t>
-  </si>
-  <si>
-    <t>$480</t>
-  </si>
-  <si>
-    <t>3.7折</t>
-  </si>
-  <si>
-    <t>2.7折</t>
-  </si>
-  <si>
-    <t>3.1折</t>
-  </si>
-  <si>
-    <t>2折</t>
-  </si>
-  <si>
-    <t>5.5折</t>
-  </si>
-  <si>
-    <t>1折</t>
-  </si>
-  <si>
-    <t>2.3折</t>
-  </si>
-  <si>
-    <t>2.4折</t>
-  </si>
-  <si>
-    <t>1.8折</t>
-  </si>
-  <si>
-    <t>1.5折</t>
-  </si>
-  <si>
-    <t>5折</t>
-  </si>
-  <si>
-    <t>4.5折</t>
-  </si>
-  <si>
-    <t>1.6折</t>
-  </si>
-  <si>
-    <t>3折</t>
-  </si>
-  <si>
-    <t>4.6折</t>
-  </si>
-  <si>
-    <t>2.5折</t>
-  </si>
-  <si>
-    <t>4.2折</t>
-  </si>
-  <si>
-    <t>5.1折</t>
-  </si>
-  <si>
-    <t>3.9折</t>
-  </si>
-  <si>
-    <t>4.1折</t>
-  </si>
-  <si>
-    <t>4.9折</t>
-  </si>
-  <si>
-    <t>10折</t>
-  </si>
-  <si>
-    <t>6.5折</t>
-  </si>
-  <si>
-    <t>2.8折</t>
-  </si>
-  <si>
-    <t>2.2折</t>
-  </si>
-  <si>
-    <t>7折</t>
-  </si>
-  <si>
-    <t>3.3折</t>
-  </si>
-  <si>
-    <t>3.2折</t>
-  </si>
-  <si>
-    <t>5.7折</t>
-  </si>
-  <si>
-    <t>5.4折</t>
-  </si>
-  <si>
-    <t>3.5折</t>
-  </si>
-  <si>
-    <t>3.8折</t>
-  </si>
-  <si>
-    <t>2.9折</t>
-  </si>
-  <si>
-    <t>6.4折</t>
-  </si>
-  <si>
-    <t>5.6折</t>
-  </si>
-  <si>
-    <t>6.3折</t>
-  </si>
-  <si>
-    <t>4.2</t>
-  </si>
-  <si>
-    <t>4.9</t>
-  </si>
-  <si>
-    <t>4.1</t>
+    <t>353</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>24</t>
   </si>
   <si>
     <t>5</t>
   </si>
   <si>
-    <t>619</t>
-  </si>
-  <si>
-    <t>173</t>
-  </si>
-  <si>
-    <t>128</t>
-  </si>
-  <si>
-    <t>73</t>
-  </si>
-  <si>
-    <t>109</t>
-  </si>
-  <si>
-    <t>113</t>
-  </si>
-  <si>
-    <t>152</t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
     <t>9</t>
   </si>
   <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>513</t>
-  </si>
-  <si>
-    <t>829</t>
-  </si>
-  <si>
-    <t>547</t>
-  </si>
-  <si>
-    <t>387</t>
-  </si>
-  <si>
-    <t>396</t>
-  </si>
-  <si>
-    <t>465</t>
-  </si>
-  <si>
-    <t>307</t>
-  </si>
-  <si>
-    <t>442</t>
-  </si>
-  <si>
-    <t>476</t>
-  </si>
-  <si>
-    <t>323</t>
-  </si>
-  <si>
-    <t>593</t>
-  </si>
-  <si>
-    <t>314</t>
-  </si>
-  <si>
-    <t>492</t>
-  </si>
-  <si>
-    <t>279</t>
-  </si>
-  <si>
-    <t>357</t>
-  </si>
-  <si>
-    <t>240</t>
-  </si>
-  <si>
-    <t>283</t>
-  </si>
-  <si>
-    <t>271</t>
-  </si>
-  <si>
-    <t>199</t>
-  </si>
-  <si>
-    <t>176</t>
-  </si>
-  <si>
-    <t>206</t>
-  </si>
-  <si>
-    <t>262</t>
-  </si>
-  <si>
-    <t>308</t>
-  </si>
-  <si>
-    <t>480</t>
-  </si>
-  <si>
-    <t>172</t>
-  </si>
-  <si>
-    <t>110</t>
-  </si>
-  <si>
-    <t>246</t>
-  </si>
-  <si>
-    <t>339</t>
-  </si>
-  <si>
-    <t>310</t>
-  </si>
-  <si>
-    <t>164</t>
-  </si>
-  <si>
-    <t>63</t>
-  </si>
-  <si>
-    <t>145</t>
-  </si>
-  <si>
-    <t>126</t>
-  </si>
-  <si>
-    <t>182</t>
-  </si>
-  <si>
-    <t>171</t>
-  </si>
-  <si>
-    <t>65</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>91</t>
-  </si>
-  <si>
-    <t>168</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>135</t>
-  </si>
-  <si>
-    <t>108</t>
-  </si>
-  <si>
-    <t>129</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>71</t>
-  </si>
-  <si>
-    <t>59</t>
-  </si>
-  <si>
-    <t>340</t>
-  </si>
-  <si>
-    <t>94</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
-    <t>服飾婦幼 男生服飾 褲子</t>
-  </si>
-  <si>
-    <t>服飾婦幼 男生服飾 襪子配件</t>
-  </si>
-  <si>
-    <t>服飾婦幼 男生服飾 上衣/外套</t>
-  </si>
-  <si>
-    <t>服飾婦幼 男生服飾 內衣褲/家居服</t>
-  </si>
-  <si>
-    <t>服飾婦幼 男生服飾 男鞋</t>
-  </si>
-  <si>
-    <t>服飾婦幼 男生服飾 男包</t>
+    <t>服飾婦幼 男性下身 工作褲</t>
+  </si>
+  <si>
+    <t>服飾婦幼 嬰幼玩具 其他嬰幼玩具</t>
+  </si>
+  <si>
+    <t>服飾婦幼 女性下身 休閒運動褲&amp;裙</t>
+  </si>
+  <si>
+    <t>戶外休閒 戶外服飾 戶外機能下著</t>
+  </si>
+  <si>
+    <t>戶外休閒 戶外服飾 抗風防水外套</t>
+  </si>
+  <si>
+    <t>戶外休閒 行李箱 行李箱配件</t>
+  </si>
+  <si>
+    <t>戶外休閒 健身器材 中小健身器材</t>
+  </si>
+  <si>
+    <t>服飾婦幼 女性內睡衣 三角褲</t>
+  </si>
+  <si>
+    <t>服飾婦幼 女性下身 大尺碼褲裝</t>
+  </si>
+  <si>
+    <t>居家生活 其他 其他居家生活</t>
+  </si>
+  <si>
+    <t>服飾婦幼 女性內睡衣 其他內睡衣</t>
+  </si>
+  <si>
+    <t>服飾婦幼 男鞋男襪 馬汀靴</t>
+  </si>
+  <si>
+    <t>服飾婦幼 男性下身 工作短褲</t>
+  </si>
+  <si>
+    <t>服飾婦幼 女性下身 女休閒長褲</t>
+  </si>
+  <si>
+    <t>服飾婦幼 女性下身 牛仔長褲</t>
+  </si>
+  <si>
+    <t>服飾婦幼 男性內著 內褲</t>
+  </si>
+  <si>
+    <t>服飾婦幼 男性下身 西裝褲</t>
+  </si>
+  <si>
+    <t>服飾婦幼 男包 長夾</t>
+  </si>
+  <si>
+    <t>戶外休閒 戶外用品 水上活動</t>
+  </si>
+  <si>
+    <t>服飾婦幼 男性下身 其他男性下身</t>
+  </si>
+  <si>
+    <t>服飾婦幼 女性上衣 長袖帽T</t>
+  </si>
+  <si>
+    <t>服飾婦幼 女包 零錢包&amp;鑰匙包</t>
+  </si>
+  <si>
+    <t>服飾婦幼 女鞋女襪 短襪</t>
+  </si>
+  <si>
+    <t>服飾婦幼 男性配飾 其他男性配飾</t>
+  </si>
+  <si>
+    <t>服飾婦幼 女性上衣 長袖襯衫</t>
+  </si>
+  <si>
+    <t>服飾婦幼 男鞋男襪 其他男鞋</t>
+  </si>
+  <si>
+    <t>服飾婦幼 女性上衣 其他女性上衣</t>
+  </si>
+  <si>
+    <t>戶外休閒 戶外服飾 戶外機能上著</t>
+  </si>
+  <si>
+    <t>戶外休閒 戶外服飾 戶外保暖外套</t>
+  </si>
+  <si>
+    <t>服飾婦幼 女性上衣 長袖T恤</t>
+  </si>
+  <si>
+    <t>服飾婦幼 男包 胸包</t>
+  </si>
+  <si>
+    <t>服飾婦幼 女性下身 寬褲</t>
+  </si>
+  <si>
+    <t>戶外休閒 運動鞋款 運動涼&amp;拖鞋</t>
   </si>
   <si>
     <t>#鬆緊帶褲頭 #修身 #軍規 #休閒 #多口袋 #加大尺碼 #透氣 #耐磨 #迷彩 #工作褲</t>
@@ -1096,9 +1105,6 @@
     <t>#透氣 #耐磨 #口袋褲 #百搭 #加大尺碼 #抗刀割 #軍規 #純棉 #彈性 #工作褲</t>
   </si>
   <si>
-    <t>#男襪 #女襪 #棉襪 #機能襪 #運動襪 #襪子</t>
-  </si>
-  <si>
     <t>#防風 #保暖 #多功能 #冬天 #外套 #三穿</t>
   </si>
   <si>
@@ -1117,9 +1123,6 @@
     <t>#鬆緊帶褲頭 #多口袋 #五分褲 #彈力 #短褲 #透氣 #加大尺碼 #工作褲 #彈性 #迷彩</t>
   </si>
   <si>
-    <t>#防雨 #情侶 #男女 #禦寒 #防水 #防風 #外套 #保暖外套 #登山 #衝鋒外套</t>
-  </si>
-  <si>
     <t>#長褲 #保暖 #加絨 #衝鋒褲 #大尺碼</t>
   </si>
   <si>
@@ -1132,135 +1135,120 @@
     <t>#經典黃靴 #美式短靴 #短靴 #休閒鞋 #黑色 #棕色 #工程靴 #男短靴 #低筒 #工作靴</t>
   </si>
   <si>
+    <t>#大尺碼 #彈性 #伸縮 #耐磨 #純棉 #輕薄 #工作褲 #口袋褲 #側口袋 #透氣</t>
+  </si>
+  <si>
+    <t>#防寒 #戶外 #登山 #釣魚 #機能褲 #工作褲 #防水 #禦寒 #衝鋒褲 #防風</t>
+  </si>
+  <si>
+    <t>#彈力 #牛仔褲 #長褲 #休閒長褲 #風褲 #加大尺碼 #棉褲 #保暖褲 #牛仔刷毛 #衝鋒褲</t>
+  </si>
+  <si>
     <t>#男性內褲 #ALiADo #平口 #四角褲 #內褲</t>
   </si>
   <si>
-    <t>#大尺碼 #彈性 #伸縮 #耐磨 #純棉 #輕薄 #工作褲 #口袋褲 #側口袋 #透氣</t>
-  </si>
-  <si>
     <t>#型男 #百搭 #增高 #戶外 #休閒 #格紋 #修身 #顯瘦 #英倫風</t>
   </si>
   <si>
-    <t>#防寒 #戶外 #登山 #釣魚 #機能褲 #工作褲 #防水 #禦寒 #衝鋒褲 #防風</t>
-  </si>
-  <si>
-    <t>#彈力 #牛仔褲 #長褲 #休閒長褲 #風褲 #加大尺碼 #棉褲 #保暖褲 #牛仔刷毛 #衝鋒褲</t>
-  </si>
-  <si>
     <t>#工作長褲 #厚款 #防割 #男褲 #重磅 #休閒褲 #耐磨 #多口袋 #長褲 #工作褲</t>
   </si>
   <si>
-    <t>#秋冬 #休閒 #長褲 #夏天 #工作褲 #透氣 #多口袋</t>
-  </si>
-  <si>
     <t>#長褲 #男長褲 #休閒褲 #涼感 #多口袋 #輕薄 #彈性 #透氣 #夏天 #工作褲</t>
   </si>
   <si>
     <t>#四角褲 #四角內褲 #冰絲 #4D內褲 #內褲 #冰絲內褲</t>
   </si>
   <si>
+    <t>#側背腰包 #防水腰包 #側背包 #手機包 #工作腰包 #腰包</t>
+  </si>
+  <si>
     <t>#男生皮夾 #男士錢包 #手機錢包</t>
   </si>
   <si>
-    <t>#側背腰包 #防水腰包 #側背包 #手機包 #工作腰包 #腰包</t>
-  </si>
-  <si>
-    <t>#出國旅遊 #好穿 #好走路 #運動爬山 #慢跑 #休閒 #運動 #健行 #登山</t>
+    <t>#防風帽子不用時可拆卸 #口袋拉鍊物品不遺失 #袖口縮口冷風不侵入 #防風防水透氣不悶熱</t>
+  </si>
+  <si>
+    <t>#加絨 #機能 #加厚 #防雨 #戶外 #防風 #禦寒</t>
+  </si>
+  <si>
+    <t>#內衣 #情侶 #內搭 #發熱衣 #保暖背心 #男女生背心 #保暖衣 #刷毛 #加絨 #背心</t>
   </si>
   <si>
     <t>#側口袋 #耐磨 #中直筒 #工作褲 #多口袋 #大尺碼 #彈力 #抗悶 #透氣 #迷彩</t>
   </si>
   <si>
-    <t>#內衣 #情侶 #內搭 #發熱衣 #保暖背心 #男女生背心 #保暖衣 #刷毛 #加絨 #背心</t>
-  </si>
-  <si>
     <t>#掛包 #車用 #錢包 #鑰匙包 #牛皮 #真皮</t>
   </si>
   <si>
+    <t>#鬆緊帶長褲 #速乾長褲 #工作褲 #休閒長褲 #跑步長褲</t>
+  </si>
+  <si>
+    <t>#香港腳 #腳臭 #細菌 #抗菌 #除臭 #奈米</t>
+  </si>
+  <si>
     <t>#加大 #風琴卡包 #防盜 #真皮</t>
   </si>
   <si>
-    <t>#抗皺面料 #免燙 #防皺 #超彈力 #西裝褲</t>
-  </si>
-  <si>
     <t>#平口褲 #四角褲 #運動用 #男內褲</t>
   </si>
   <si>
-    <t>#香港腳 #腳臭 #細菌 #抗菌 #除臭 #奈米</t>
-  </si>
-  <si>
-    <t>#防風帽子不用時可拆卸 #口袋拉鍊物品不遺失 #袖口縮口冷風不侵入 #防風防水透氣不悶熱</t>
-  </si>
-  <si>
-    <t>#鬆緊帶長褲 #速乾長褲 #工作褲 #休閒長褲 #跑步長褲</t>
+    <t>#長褲 #休閒長褲 #男裝 #耐磨 #側口袋 #彈力 #透氣 #彈性 #加大尺碼 #工作褲</t>
+  </si>
+  <si>
+    <t>#四角褲 #平口褲 #男內褲</t>
   </si>
   <si>
     <t>#內褲 #平口褲 #四角褲 #男內褲</t>
   </si>
   <si>
+    <t>#工作褲 #多口袋 #男生 #長褲 #50腰 #48腰 #加大 #44腰 #46腰 #大尺碼</t>
+  </si>
+  <si>
     <t>#韓版 #簡約 #柔軟 #立領 #修身 #褲子 #休閒 #上衣 #外套 #套裝</t>
   </si>
   <si>
-    <t>#四角褲 #平口褲 #男內褲</t>
-  </si>
-  <si>
-    <t>#長褲 #休閒長褲 #男裝 #耐磨 #側口袋 #彈力 #透氣 #彈性 #加大尺碼 #工作褲</t>
-  </si>
-  <si>
     <t>#工廠 #飛織 #黑灰 #防砸 #工地鞋 #鞋子 #健保鞋 #鋼頭鞋 #透氣 #工作鞋</t>
   </si>
   <si>
-    <t>#工作褲 #多口袋 #男生 #長褲 #50腰 #48腰 #加大 #44腰 #46腰 #大尺碼</t>
-  </si>
-  <si>
-    <t>#加絨 #機能 #加厚 #防雨 #戶外 #防風 #禦寒</t>
+    <t>#88</t>
+  </si>
+  <si>
+    <t>#舒適 #刷毛 #保暖 #衛生衣 #發熱衣 #保暖衣</t>
   </si>
   <si>
     <t>#皮夾 #錢包 #工業風 #復古 #商務包 #男生 #手機錢包</t>
   </si>
   <si>
-    <t>#男鞋 #舒適 #輕便休閒 #百搭 #慢跑鞋 #休閒 #好穿脫 #套腳式 #基本款</t>
-  </si>
-  <si>
-    <t>#88</t>
+    <t>#男生錢包 #皮包 #皮夾 #錢包 #長夾</t>
+  </si>
+  <si>
+    <t>#韓版 #保暖 #連帽 #休閒 #型男 #褲子 #外套 #羽絨 #上衣 #套裝</t>
+  </si>
+  <si>
+    <t>#牛仔長褲 #休閒褲 #男生牛仔褲 #牛仔褲 #牛仔 #丹寧 #工作褲 #長褲 #男生長褲 #多口袋</t>
+  </si>
+  <si>
+    <t>#長袖 #刷毛 #顯瘦 #型男 #簡約 #休閒 #上衣 #韓版 #修身 #衣服</t>
   </si>
   <si>
     <t>#針織 #四角褲 #內褲 #平口褲 #男內褲</t>
   </si>
   <si>
-    <t>#牛仔長褲 #休閒褲 #男生牛仔褲 #牛仔褲 #牛仔 #丹寧 #工作褲 #長褲 #男生長褲 #多口袋</t>
-  </si>
-  <si>
-    <t>#男生錢包 #皮包 #皮夾 #錢包 #長夾</t>
-  </si>
-  <si>
-    <t>#韓版 #保暖 #連帽 #休閒 #型男 #褲子 #外套 #羽絨 #上衣 #套裝</t>
-  </si>
-  <si>
     <t>#斜胸包 #單肩包 #後背包</t>
   </si>
   <si>
+    <t>#男生長褲 #保暖褲 #磯釣褲 #登山褲 #衝鋒褲</t>
+  </si>
+  <si>
     <t>#保暖棉褲 #台灣製造棉褲 #高磅棉褲 #加大尺碼 #厚棉褲 #台灣製造 #防風 #保暖 #衝鋒褲 #棉褲</t>
   </si>
   <si>
-    <t>#長袖 #刷毛 #顯瘦 #型男 #簡約 #休閒 #上衣 #韓版 #修身 #衣服</t>
-  </si>
-  <si>
-    <t>#男生長褲 #保暖褲 #磯釣褲 #登山褲 #衝鋒褲</t>
-  </si>
-  <si>
-    <t>#舒適 #刷毛 #保暖 #衛生衣 #發熱衣 #保暖衣</t>
-  </si>
-  <si>
     <t>#英倫 #特價 #休閒 #多用途 #工裝時尚 #男鞋 #工作 #潮流 #潮鞋 #基本款</t>
   </si>
   <si>
     <t>#運動 #平口 #彈性 #四角男內褲 #男內褲 #條紋 #四角內褲 #純棉</t>
   </si>
   <si>
-    <t>#防曬 #天絲 #除臭 #抗敏 #長袖</t>
-  </si>
-  <si>
     <t>#皮爾卡登 #男性衛生衣 #男性保暖長袖 #蓄熱保暖 #V領 #衛生衣 #圓領 #保暖長袖</t>
   </si>
   <si>
@@ -1276,9 +1264,6 @@
     <t>https://www.pcone.com.tw/product/info/171123038939</t>
   </si>
   <si>
-    <t>https://www.pcone.com.tw/product/info/180713490953</t>
-  </si>
-  <si>
     <t>https://www.pcone.com.tw/product/info/171121549028</t>
   </si>
   <si>
@@ -1297,9 +1282,6 @@
     <t>https://www.pcone.com.tw/product/info/180319727479</t>
   </si>
   <si>
-    <t>https://www.pcone.com.tw/product/info/171129985157</t>
-  </si>
-  <si>
     <t>https://www.pcone.com.tw/product/info/180830936058</t>
   </si>
   <si>
@@ -1312,136 +1294,121 @@
     <t>https://www.pcone.com.tw/product/info/161129374107</t>
   </si>
   <si>
+    <t>https://www.pcone.com.tw/product/info/171123817354</t>
+  </si>
+  <si>
+    <t>https://www.pcone.com.tw/product/info/161116672594</t>
+  </si>
+  <si>
+    <t>https://www.pcone.com.tw/product/info/181022235393</t>
+  </si>
+  <si>
     <t>https://www.pcone.com.tw/product/info/180420669552</t>
   </si>
   <si>
-    <t>https://www.pcone.com.tw/product/info/171123817354</t>
-  </si>
-  <si>
     <t>https://www.pcone.com.tw/product/info/171222909114</t>
   </si>
   <si>
-    <t>https://www.pcone.com.tw/product/info/161116672594</t>
-  </si>
-  <si>
-    <t>https://www.pcone.com.tw/product/info/181022235393</t>
-  </si>
-  <si>
     <t>https://www.pcone.com.tw/product/info/171019525742</t>
   </si>
   <si>
-    <t>https://www.pcone.com.tw/product/info/160831523802</t>
-  </si>
-  <si>
     <t>https://www.pcone.com.tw/product/info/171016219467</t>
   </si>
   <si>
     <t>https://www.pcone.com.tw/product/info/180328501473</t>
   </si>
   <si>
+    <t>https://www.pcone.com.tw/product/info/181005230135</t>
+  </si>
+  <si>
     <t>https://www.pcone.com.tw/product/info/180202736725</t>
   </si>
   <si>
-    <t>https://www.pcone.com.tw/product/info/181005230135</t>
-  </si>
-  <si>
-    <t>https://www.pcone.com.tw/product/info/181105377515</t>
+    <t>https://www.pcone.com.tw/product/info/171222248769</t>
+  </si>
+  <si>
+    <t>https://www.pcone.com.tw/product/info/181211089811</t>
+  </si>
+  <si>
+    <t>https://www.pcone.com.tw/product/info/181004934591</t>
   </si>
   <si>
     <t>https://www.pcone.com.tw/product/info/180502349395</t>
   </si>
   <si>
-    <t>https://www.pcone.com.tw/product/info/181004934591</t>
-  </si>
-  <si>
     <t>https://www.pcone.com.tw/product/info/170821256726</t>
   </si>
   <si>
+    <t>https://www.pcone.com.tw/product/info/180817787611</t>
+  </si>
+  <si>
+    <t>https://www.pcone.com.tw/product/info/180927920257</t>
+  </si>
+  <si>
     <t>https://www.pcone.com.tw/product/info/180822185737</t>
   </si>
   <si>
-    <t>https://www.pcone.com.tw/product/info/181206183620</t>
-  </si>
-  <si>
     <t>https://www.pcone.com.tw/product/info/170728706185</t>
   </si>
   <si>
-    <t>https://www.pcone.com.tw/product/info/180927920257</t>
-  </si>
-  <si>
-    <t>https://www.pcone.com.tw/product/info/171222248769</t>
-  </si>
-  <si>
-    <t>https://www.pcone.com.tw/product/info/180817787611</t>
+    <t>https://www.pcone.com.tw/product/info/180927763049</t>
+  </si>
+  <si>
+    <t>https://www.pcone.com.tw/product/info/170728713552</t>
   </si>
   <si>
     <t>https://www.pcone.com.tw/product/info/170728380553</t>
   </si>
   <si>
+    <t>https://www.pcone.com.tw/product/info/180907070682</t>
+  </si>
+  <si>
     <t>https://www.pcone.com.tw/product/info/180926520487</t>
   </si>
   <si>
-    <t>https://www.pcone.com.tw/product/info/170728713552</t>
-  </si>
-  <si>
-    <t>https://www.pcone.com.tw/product/info/180927763049</t>
-  </si>
-  <si>
     <t>https://www.pcone.com.tw/product/info/181126272428</t>
   </si>
   <si>
-    <t>https://www.pcone.com.tw/product/info/180907070682</t>
-  </si>
-  <si>
-    <t>https://www.pcone.com.tw/product/info/181211089811</t>
+    <t>https://www.pcone.com.tw/product/info/181113234175</t>
+  </si>
+  <si>
+    <t>https://www.pcone.com.tw/product/info/181107972530</t>
   </si>
   <si>
     <t>https://www.pcone.com.tw/product/info/180716415751</t>
   </si>
   <si>
-    <t>https://www.pcone.com.tw/product/info/171213650897</t>
-  </si>
-  <si>
-    <t>https://www.pcone.com.tw/product/info/181113234175</t>
+    <t>https://www.pcone.com.tw/product/info/181130354116</t>
+  </si>
+  <si>
+    <t>https://www.pcone.com.tw/product/info/181012659095</t>
+  </si>
+  <si>
+    <t>https://www.pcone.com.tw/product/info/180316249665</t>
+  </si>
+  <si>
+    <t>https://www.pcone.com.tw/product/info/181106598475</t>
+  </si>
+  <si>
+    <t>https://www.pcone.com.tw/product/info/181012535974</t>
   </si>
   <si>
     <t>https://www.pcone.com.tw/product/info/170728604391</t>
   </si>
   <si>
-    <t>https://www.pcone.com.tw/product/info/180316249665</t>
-  </si>
-  <si>
-    <t>https://www.pcone.com.tw/product/info/181130354116</t>
-  </si>
-  <si>
-    <t>https://www.pcone.com.tw/product/info/181012659095</t>
-  </si>
-  <si>
     <t>https://www.pcone.com.tw/product/info/171201266197</t>
   </si>
   <si>
+    <t>https://www.pcone.com.tw/product/info/181120588306</t>
+  </si>
+  <si>
     <t>https://www.pcone.com.tw/product/info/181003483193</t>
   </si>
   <si>
-    <t>https://www.pcone.com.tw/product/info/181106598475</t>
-  </si>
-  <si>
-    <t>https://www.pcone.com.tw/product/info/181012535974</t>
-  </si>
-  <si>
-    <t>https://www.pcone.com.tw/product/info/181120588306</t>
-  </si>
-  <si>
-    <t>https://www.pcone.com.tw/product/info/181107972530</t>
-  </si>
-  <si>
     <t>https://www.pcone.com.tw/product/info/171213567750</t>
   </si>
   <si>
     <t>https://www.pcone.com.tw/product/info/181102797012</t>
-  </si>
-  <si>
-    <t>https://www.pcone.com.tw/product/info/181017257196</t>
   </si>
   <si>
     <t>https://www.pcone.com.tw/product/info/181204936842</t>
@@ -1815,7 +1782,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q62"/>
+  <dimension ref="A1:Q55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1879,49 +1846,49 @@
         <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H2" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="I2" t="s">
-        <v>151</v>
+        <v>181</v>
       </c>
       <c r="J2" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="K2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L2" t="s">
-        <v>264</v>
+        <v>239</v>
       </c>
       <c r="M2" t="s">
-        <v>297</v>
+        <v>273</v>
       </c>
       <c r="N2" t="s">
-        <v>344</v>
+        <v>318</v>
       </c>
       <c r="O2" t="s">
-        <v>350</v>
+        <v>326</v>
       </c>
       <c r="P2" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -1932,49 +1899,49 @@
         <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H3" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="I3" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="J3" t="s">
-        <v>225</v>
+        <v>207</v>
       </c>
       <c r="K3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L3" t="s">
-        <v>265</v>
+        <v>240</v>
       </c>
       <c r="M3" t="s">
-        <v>298</v>
+        <v>274</v>
       </c>
       <c r="N3" t="s">
-        <v>345</v>
+        <v>55</v>
       </c>
       <c r="O3" t="s">
-        <v>350</v>
+        <v>327</v>
       </c>
       <c r="P3" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1985,49 +1952,49 @@
         <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H4" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="I4" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="J4" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
       <c r="K4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="L4" t="s">
-        <v>266</v>
+        <v>241</v>
       </c>
       <c r="M4" t="s">
-        <v>299</v>
+        <v>275</v>
       </c>
       <c r="N4" t="s">
-        <v>50</v>
+        <v>319</v>
       </c>
       <c r="O4" t="s">
-        <v>350</v>
+        <v>328</v>
       </c>
       <c r="P4" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2038,49 +2005,49 @@
         <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H5" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="I5" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="J5" t="s">
-        <v>227</v>
+        <v>209</v>
       </c>
       <c r="K5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="L5" t="s">
-        <v>267</v>
+        <v>242</v>
       </c>
       <c r="M5" t="s">
-        <v>300</v>
+        <v>276</v>
       </c>
       <c r="N5" t="s">
-        <v>286</v>
+        <v>250</v>
       </c>
       <c r="O5" t="s">
-        <v>350</v>
+        <v>329</v>
       </c>
       <c r="P5" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2091,49 +2058,49 @@
         <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H6" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="I6" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="J6" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
       <c r="K6" t="s">
-        <v>73</v>
+        <v>236</v>
       </c>
       <c r="L6" t="s">
-        <v>268</v>
+        <v>243</v>
       </c>
       <c r="M6" t="s">
-        <v>301</v>
+        <v>277</v>
       </c>
       <c r="N6" t="s">
-        <v>287</v>
+        <v>249</v>
       </c>
       <c r="O6" t="s">
-        <v>351</v>
+        <v>330</v>
       </c>
       <c r="P6" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2144,49 +2111,49 @@
         <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F7" t="s">
         <v>83</v>
       </c>
       <c r="G7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H7" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="I7" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="J7" t="s">
-        <v>229</v>
+        <v>206</v>
       </c>
       <c r="K7" t="s">
-        <v>260</v>
+        <v>73</v>
       </c>
       <c r="L7" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="M7" t="s">
-        <v>302</v>
+        <v>278</v>
       </c>
       <c r="N7" t="s">
-        <v>284</v>
+        <v>320</v>
       </c>
       <c r="O7" t="s">
-        <v>352</v>
+        <v>331</v>
       </c>
       <c r="P7" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2197,49 +2164,49 @@
         <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F8" t="s">
+        <v>83</v>
+      </c>
+      <c r="G8" t="s">
+        <v>93</v>
+      </c>
+      <c r="H8" t="s">
+        <v>147</v>
+      </c>
+      <c r="I8" t="s">
+        <v>186</v>
+      </c>
+      <c r="J8" t="s">
+        <v>211</v>
+      </c>
+      <c r="K8" t="s">
         <v>74</v>
       </c>
-      <c r="E8" t="s">
-        <v>77</v>
-      </c>
-      <c r="F8" t="s">
-        <v>84</v>
-      </c>
-      <c r="G8" t="s">
-        <v>92</v>
-      </c>
-      <c r="H8" t="s">
-        <v>153</v>
-      </c>
-      <c r="I8" t="s">
-        <v>198</v>
-      </c>
-      <c r="J8" t="s">
-        <v>230</v>
-      </c>
-      <c r="K8" t="s">
-        <v>75</v>
-      </c>
       <c r="L8" t="s">
-        <v>269</v>
+        <v>243</v>
       </c>
       <c r="M8" t="s">
-        <v>303</v>
+        <v>279</v>
       </c>
       <c r="N8" t="s">
-        <v>284</v>
+        <v>321</v>
       </c>
       <c r="O8" t="s">
-        <v>351</v>
+        <v>326</v>
       </c>
       <c r="P8" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2247,52 +2214,52 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E9" t="s">
         <v>77</v>
       </c>
       <c r="F9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G9" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H9" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="I9" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="J9" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
       <c r="K9" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="L9" t="s">
-        <v>45</v>
+        <v>244</v>
       </c>
       <c r="M9" t="s">
-        <v>304</v>
+        <v>280</v>
       </c>
       <c r="N9" t="s">
-        <v>346</v>
+        <v>322</v>
       </c>
       <c r="O9" t="s">
-        <v>350</v>
+        <v>332</v>
       </c>
       <c r="P9" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2300,52 +2267,52 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D10" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E10" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F10" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H10" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="I10" t="s">
-        <v>198</v>
+        <v>173</v>
       </c>
       <c r="J10" t="s">
-        <v>232</v>
+        <v>211</v>
       </c>
       <c r="K10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L10" t="s">
-        <v>270</v>
+        <v>245</v>
       </c>
       <c r="M10" t="s">
-        <v>305</v>
+        <v>281</v>
       </c>
       <c r="N10" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="O10" t="s">
-        <v>351</v>
+        <v>333</v>
       </c>
       <c r="P10" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2353,52 +2320,52 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="D11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G11" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H11" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="I11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J11" t="s">
-        <v>231</v>
+        <v>213</v>
       </c>
       <c r="K11" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="L11" t="s">
-        <v>69</v>
+        <v>246</v>
       </c>
       <c r="M11" t="s">
-        <v>306</v>
+        <v>282</v>
       </c>
       <c r="N11" t="s">
-        <v>286</v>
+        <v>320</v>
       </c>
       <c r="O11" t="s">
-        <v>353</v>
+        <v>329</v>
       </c>
       <c r="P11" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2406,52 +2373,52 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D12" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E12" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G12" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H12" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="I12" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="J12" t="s">
-        <v>233</v>
+        <v>214</v>
       </c>
       <c r="K12" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="L12" t="s">
-        <v>271</v>
+        <v>247</v>
       </c>
       <c r="M12" t="s">
-        <v>307</v>
+        <v>283</v>
       </c>
       <c r="N12" t="s">
-        <v>284</v>
+        <v>315</v>
       </c>
       <c r="O12" t="s">
-        <v>350</v>
+        <v>334</v>
       </c>
       <c r="P12" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2462,49 +2429,49 @@
         <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D13" t="s">
+        <v>70</v>
+      </c>
+      <c r="E13" t="s">
+        <v>78</v>
+      </c>
+      <c r="F13" t="s">
+        <v>82</v>
+      </c>
+      <c r="G13" t="s">
+        <v>98</v>
+      </c>
+      <c r="H13" t="s">
+        <v>152</v>
+      </c>
+      <c r="I13" t="s">
+        <v>188</v>
+      </c>
+      <c r="J13" t="s">
+        <v>215</v>
+      </c>
+      <c r="K13" t="s">
         <v>74</v>
       </c>
-      <c r="E13" t="s">
-        <v>77</v>
-      </c>
-      <c r="F13" t="s">
-        <v>83</v>
-      </c>
-      <c r="G13" t="s">
-        <v>97</v>
-      </c>
-      <c r="H13" t="s">
-        <v>158</v>
-      </c>
-      <c r="I13" t="s">
-        <v>200</v>
-      </c>
-      <c r="J13" t="s">
-        <v>234</v>
-      </c>
-      <c r="K13" t="s">
-        <v>71</v>
-      </c>
       <c r="L13" t="s">
-        <v>272</v>
+        <v>69</v>
       </c>
       <c r="M13" t="s">
-        <v>308</v>
+        <v>284</v>
       </c>
       <c r="N13" t="s">
-        <v>282</v>
+        <v>262</v>
       </c>
       <c r="O13" t="s">
-        <v>352</v>
+        <v>335</v>
       </c>
       <c r="P13" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2515,49 +2482,49 @@
         <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D14" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E14" t="s">
         <v>80</v>
       </c>
       <c r="F14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G14" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H14" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="I14" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="J14" t="s">
-        <v>235</v>
+        <v>209</v>
       </c>
       <c r="K14" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="L14" t="s">
-        <v>273</v>
+        <v>243</v>
       </c>
       <c r="M14" t="s">
-        <v>309</v>
+        <v>285</v>
       </c>
       <c r="N14" t="s">
-        <v>45</v>
+        <v>267</v>
       </c>
       <c r="O14" t="s">
-        <v>350</v>
+        <v>336</v>
       </c>
       <c r="P14" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -2568,49 +2535,49 @@
         <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D15" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E15" t="s">
         <v>78</v>
       </c>
       <c r="F15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G15" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H15" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="I15" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="J15" t="s">
-        <v>236</v>
+        <v>216</v>
       </c>
       <c r="K15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L15" t="s">
-        <v>274</v>
+        <v>248</v>
       </c>
       <c r="M15" t="s">
-        <v>310</v>
+        <v>286</v>
       </c>
       <c r="N15" t="s">
-        <v>289</v>
+        <v>67</v>
       </c>
       <c r="O15" t="s">
-        <v>351</v>
+        <v>337</v>
       </c>
       <c r="P15" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -2618,52 +2585,52 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="D16" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E16" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G16" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H16" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="I16" t="s">
-        <v>203</v>
+        <v>181</v>
       </c>
       <c r="J16" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
       <c r="K16" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="L16" t="s">
-        <v>275</v>
+        <v>67</v>
       </c>
       <c r="M16" t="s">
-        <v>311</v>
+        <v>287</v>
       </c>
       <c r="N16" t="s">
-        <v>289</v>
+        <v>255</v>
       </c>
       <c r="O16" t="s">
-        <v>353</v>
+        <v>338</v>
       </c>
       <c r="P16" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -2671,52 +2638,52 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D17" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E17" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G17" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H17" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="I17" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="J17" t="s">
-        <v>237</v>
+        <v>217</v>
       </c>
       <c r="K17" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L17" t="s">
-        <v>276</v>
+        <v>67</v>
       </c>
       <c r="M17" t="s">
-        <v>312</v>
+        <v>288</v>
       </c>
       <c r="N17" t="s">
-        <v>65</v>
+        <v>262</v>
       </c>
       <c r="O17" t="s">
-        <v>354</v>
+        <v>339</v>
       </c>
       <c r="P17" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -2724,52 +2691,52 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="D18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E18" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G18" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H18" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="I18" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="J18" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="K18" t="s">
         <v>73</v>
       </c>
       <c r="L18" t="s">
-        <v>60</v>
+        <v>246</v>
       </c>
       <c r="M18" t="s">
-        <v>313</v>
+        <v>289</v>
       </c>
       <c r="N18" t="s">
-        <v>279</v>
+        <v>265</v>
       </c>
       <c r="O18" t="s">
-        <v>353</v>
+        <v>340</v>
       </c>
       <c r="P18" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -2777,52 +2744,52 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C19" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="D19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E19" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G19" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H19" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="I19" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="J19" t="s">
-        <v>231</v>
+        <v>209</v>
       </c>
       <c r="K19" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="L19" t="s">
-        <v>277</v>
+        <v>49</v>
       </c>
       <c r="M19" t="s">
-        <v>314</v>
+        <v>290</v>
       </c>
       <c r="N19" t="s">
-        <v>291</v>
+        <v>263</v>
       </c>
       <c r="O19" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="P19" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="Q19" s="2" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -2830,52 +2797,52 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D20" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E20" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G20" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H20" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="I20" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="J20" t="s">
-        <v>238</v>
+        <v>217</v>
       </c>
       <c r="K20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L20" t="s">
-        <v>278</v>
+        <v>249</v>
       </c>
       <c r="M20" t="s">
-        <v>315</v>
+        <v>291</v>
       </c>
       <c r="N20" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="O20" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="P20" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="Q20" s="2" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -2883,52 +2850,52 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="D21" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E21" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F21" t="s">
         <v>83</v>
       </c>
       <c r="G21" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H21" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="I21" t="s">
-        <v>205</v>
+        <v>186</v>
       </c>
       <c r="J21" t="s">
-        <v>238</v>
+        <v>206</v>
       </c>
       <c r="K21" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="L21" t="s">
-        <v>279</v>
+        <v>250</v>
       </c>
       <c r="M21" t="s">
-        <v>316</v>
+        <v>292</v>
       </c>
       <c r="N21" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="O21" t="s">
-        <v>350</v>
+        <v>326</v>
       </c>
       <c r="P21" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="Q21" s="2" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -2936,52 +2903,52 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C22" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E22" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F22" t="s">
         <v>83</v>
       </c>
       <c r="G22" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H22" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="I22" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="J22" t="s">
-        <v>237</v>
+        <v>206</v>
       </c>
       <c r="K22" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="L22" t="s">
-        <v>280</v>
+        <v>67</v>
       </c>
       <c r="M22" t="s">
-        <v>317</v>
+        <v>293</v>
       </c>
       <c r="N22" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="O22" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="P22" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="Q22" s="2" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -2992,49 +2959,49 @@
         <v>21</v>
       </c>
       <c r="C23" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E23" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F23" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G23" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H23" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="I23" t="s">
-        <v>199</v>
+        <v>173</v>
       </c>
       <c r="J23" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="K23" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L23" t="s">
-        <v>68</v>
+        <v>246</v>
       </c>
       <c r="M23" t="s">
-        <v>317</v>
+        <v>294</v>
       </c>
       <c r="N23" t="s">
-        <v>296</v>
+        <v>323</v>
       </c>
       <c r="O23" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="P23" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="Q23" s="2" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -3042,52 +3009,52 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="C24" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="D24" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E24" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F24" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G24" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H24" t="s">
         <v>150</v>
       </c>
       <c r="I24" t="s">
-        <v>206</v>
+        <v>175</v>
       </c>
       <c r="J24" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="K24" t="s">
-        <v>260</v>
+        <v>70</v>
       </c>
       <c r="L24" t="s">
-        <v>281</v>
+        <v>251</v>
       </c>
       <c r="M24" t="s">
-        <v>318</v>
+        <v>295</v>
       </c>
       <c r="N24" t="s">
-        <v>287</v>
+        <v>324</v>
       </c>
       <c r="O24" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="P24" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="Q24" s="2" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -3095,52 +3062,52 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C25" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="D25" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E25" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F25" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G25" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H25" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="I25" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="J25" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="K25" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="L25" t="s">
-        <v>276</v>
+        <v>252</v>
       </c>
       <c r="M25" t="s">
-        <v>316</v>
+        <v>296</v>
       </c>
       <c r="N25" t="s">
-        <v>294</v>
+        <v>271</v>
       </c>
       <c r="O25" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="P25" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="Q25" s="2" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -3148,52 +3115,52 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C26" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D26" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F26" t="s">
         <v>83</v>
       </c>
       <c r="G26" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H26" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="I26" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="J26" t="s">
-        <v>239</v>
+        <v>220</v>
       </c>
       <c r="K26" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L26" t="s">
-        <v>282</v>
+        <v>62</v>
       </c>
       <c r="M26" t="s">
-        <v>319</v>
+        <v>297</v>
       </c>
       <c r="N26" t="s">
-        <v>347</v>
+        <v>262</v>
       </c>
       <c r="O26" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="P26" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="Q26" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -3201,52 +3168,52 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C27" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="D27" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E27" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F27" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G27" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H27" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="I27" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="J27" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
       <c r="K27" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L27" t="s">
-        <v>283</v>
+        <v>253</v>
       </c>
       <c r="M27" t="s">
-        <v>320</v>
+        <v>298</v>
       </c>
       <c r="N27" t="s">
-        <v>285</v>
+        <v>255</v>
       </c>
       <c r="O27" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="P27" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="Q27" s="2" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -3257,49 +3224,49 @@
         <v>31</v>
       </c>
       <c r="C28" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D28" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E28" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F28" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G28" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H28" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="I28" t="s">
-        <v>158</v>
+        <v>195</v>
       </c>
       <c r="J28" t="s">
-        <v>240</v>
+        <v>214</v>
       </c>
       <c r="K28" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L28" t="s">
-        <v>64</v>
+        <v>254</v>
       </c>
       <c r="M28" t="s">
-        <v>321</v>
+        <v>299</v>
       </c>
       <c r="N28" t="s">
-        <v>294</v>
+        <v>323</v>
       </c>
       <c r="O28" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="P28" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="Q28" s="2" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -3307,52 +3274,52 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="C29" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="D29" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E29" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F29" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G29" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H29" t="s">
-        <v>169</v>
+        <v>144</v>
       </c>
       <c r="I29" t="s">
-        <v>208</v>
+        <v>181</v>
       </c>
       <c r="J29" t="s">
-        <v>241</v>
+        <v>211</v>
       </c>
       <c r="K29" t="s">
-        <v>75</v>
+        <v>237</v>
       </c>
       <c r="L29" t="s">
-        <v>284</v>
+        <v>255</v>
       </c>
       <c r="M29" t="s">
-        <v>322</v>
+        <v>300</v>
       </c>
       <c r="N29" t="s">
-        <v>68</v>
+        <v>323</v>
       </c>
       <c r="O29" t="s">
-        <v>354</v>
+        <v>326</v>
       </c>
       <c r="P29" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="Q29" s="2" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -3360,52 +3327,52 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="C30" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="D30" t="s">
+        <v>72</v>
+      </c>
+      <c r="E30" t="s">
+        <v>80</v>
+      </c>
+      <c r="F30" t="s">
+        <v>82</v>
+      </c>
+      <c r="G30" t="s">
+        <v>115</v>
+      </c>
+      <c r="H30" t="s">
+        <v>162</v>
+      </c>
+      <c r="I30" t="s">
+        <v>169</v>
+      </c>
+      <c r="J30" t="s">
+        <v>222</v>
+      </c>
+      <c r="K30" t="s">
         <v>71</v>
       </c>
-      <c r="E30" t="s">
-        <v>77</v>
-      </c>
-      <c r="F30" t="s">
-        <v>83</v>
-      </c>
-      <c r="G30" t="s">
-        <v>114</v>
-      </c>
-      <c r="H30" t="s">
-        <v>150</v>
-      </c>
-      <c r="I30" t="s">
-        <v>193</v>
-      </c>
-      <c r="J30" t="s">
-        <v>231</v>
-      </c>
-      <c r="K30" t="s">
-        <v>261</v>
-      </c>
       <c r="L30" t="s">
-        <v>285</v>
+        <v>256</v>
       </c>
       <c r="M30" t="s">
-        <v>323</v>
+        <v>301</v>
       </c>
       <c r="N30" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="O30" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="P30" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="Q30" s="2" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -3413,49 +3380,52 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C31" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D31" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E31" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="F31" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G31" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H31" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="I31" t="s">
-        <v>209</v>
+        <v>186</v>
       </c>
       <c r="J31" t="s">
-        <v>242</v>
+        <v>223</v>
       </c>
       <c r="K31" t="s">
-        <v>260</v>
+        <v>73</v>
       </c>
       <c r="L31" t="s">
-        <v>286</v>
+        <v>257</v>
       </c>
       <c r="M31" t="s">
+        <v>302</v>
+      </c>
+      <c r="N31" t="s">
         <v>324</v>
       </c>
       <c r="O31" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="P31" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="Q31" s="2" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -3463,52 +3433,52 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C32" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D32" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E32" t="s">
         <v>78</v>
       </c>
       <c r="F32" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G32" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H32" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="I32" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="J32" t="s">
-        <v>243</v>
+        <v>219</v>
       </c>
       <c r="K32" t="s">
-        <v>260</v>
+        <v>73</v>
       </c>
       <c r="L32" t="s">
-        <v>272</v>
+        <v>258</v>
       </c>
       <c r="M32" t="s">
-        <v>325</v>
+        <v>303</v>
       </c>
       <c r="N32" t="s">
-        <v>296</v>
+        <v>268</v>
       </c>
       <c r="O32" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="P32" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="Q32" s="2" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -3516,52 +3486,52 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C33" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D33" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E33" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F33" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G33" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H33" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="I33" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="J33" t="s">
-        <v>244</v>
+        <v>224</v>
       </c>
       <c r="K33" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L33" t="s">
-        <v>53</v>
+        <v>259</v>
       </c>
       <c r="M33" t="s">
-        <v>326</v>
+        <v>304</v>
       </c>
       <c r="N33" t="s">
-        <v>263</v>
+        <v>323</v>
       </c>
       <c r="O33" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="P33" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="Q33" s="2" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -3569,13 +3539,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="C34" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="D34" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E34" t="s">
         <v>78</v>
@@ -3584,37 +3554,37 @@
         <v>83</v>
       </c>
       <c r="G34" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H34" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="I34" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="J34" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="K34" t="s">
-        <v>262</v>
+        <v>75</v>
       </c>
       <c r="L34" t="s">
-        <v>287</v>
+        <v>260</v>
       </c>
       <c r="M34" t="s">
-        <v>327</v>
+        <v>305</v>
       </c>
       <c r="N34" t="s">
-        <v>289</v>
+        <v>78</v>
       </c>
       <c r="O34" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="P34" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="Q34" s="2" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -3622,52 +3592,52 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C35" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D35" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E35" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F35" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G35" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H35" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="I35" t="s">
-        <v>212</v>
+        <v>183</v>
       </c>
       <c r="J35" t="s">
-        <v>245</v>
+        <v>226</v>
       </c>
       <c r="K35" t="s">
+        <v>72</v>
+      </c>
+      <c r="L35" t="s">
         <v>261</v>
       </c>
-      <c r="L35" t="s">
-        <v>287</v>
-      </c>
       <c r="M35" t="s">
-        <v>328</v>
+        <v>251</v>
       </c>
       <c r="N35" t="s">
-        <v>79</v>
+        <v>268</v>
       </c>
       <c r="O35" t="s">
-        <v>353</v>
+        <v>326</v>
       </c>
       <c r="P35" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="Q35" s="2" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -3678,49 +3648,46 @@
         <v>34</v>
       </c>
       <c r="C36" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D36" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E36" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F36" t="s">
         <v>83</v>
       </c>
       <c r="G36" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H36" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="I36" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="J36" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="K36" t="s">
-        <v>75</v>
+        <v>237</v>
       </c>
       <c r="L36" t="s">
-        <v>288</v>
+        <v>262</v>
       </c>
       <c r="M36" t="s">
-        <v>329</v>
-      </c>
-      <c r="N36" t="s">
-        <v>347</v>
+        <v>258</v>
       </c>
       <c r="O36" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="P36" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="Q36" s="2" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -3728,52 +3695,52 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C37" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D37" t="s">
         <v>74</v>
       </c>
       <c r="E37" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F37" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G37" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H37" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="I37" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
       <c r="J37" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
       <c r="K37" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L37" t="s">
-        <v>289</v>
+        <v>263</v>
       </c>
       <c r="M37" t="s">
-        <v>330</v>
+        <v>305</v>
       </c>
       <c r="N37" t="s">
-        <v>279</v>
+        <v>78</v>
       </c>
       <c r="O37" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="P37" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="Q37" s="2" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -3781,52 +3748,52 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="C38" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="D38" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E38" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F38" t="s">
         <v>83</v>
       </c>
       <c r="G38" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H38" t="s">
-        <v>176</v>
+        <v>151</v>
       </c>
       <c r="I38" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="J38" t="s">
-        <v>247</v>
+        <v>216</v>
       </c>
       <c r="K38" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="L38" t="s">
-        <v>290</v>
+        <v>254</v>
       </c>
       <c r="M38" t="s">
-        <v>331</v>
+        <v>306</v>
       </c>
       <c r="N38" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="O38" t="s">
-        <v>350</v>
+        <v>326</v>
       </c>
       <c r="P38" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="Q38" s="2" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -3834,49 +3801,52 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="C39" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="D39" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E39" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F39" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G39" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H39" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="I39" t="s">
-        <v>212</v>
+        <v>190</v>
       </c>
       <c r="J39" t="s">
-        <v>245</v>
+        <v>208</v>
       </c>
       <c r="K39" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L39" t="s">
-        <v>290</v>
+        <v>250</v>
       </c>
       <c r="M39" t="s">
-        <v>47</v>
+        <v>292</v>
+      </c>
+      <c r="N39" t="s">
+        <v>262</v>
       </c>
       <c r="O39" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="P39" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="Q39" s="2" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -3884,52 +3854,52 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C40" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D40" t="s">
         <v>71</v>
       </c>
       <c r="E40" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F40" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G40" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H40" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="I40" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="J40" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K40" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="L40" t="s">
-        <v>291</v>
+        <v>250</v>
       </c>
       <c r="M40" t="s">
-        <v>332</v>
+        <v>307</v>
       </c>
       <c r="N40" t="s">
-        <v>294</v>
+        <v>260</v>
       </c>
       <c r="O40" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="P40" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="Q40" s="2" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -3937,49 +3907,52 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="C41" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="D41" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E41" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F41" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G41" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H41" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="I41" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="J41" t="s">
-        <v>245</v>
+        <v>228</v>
       </c>
       <c r="K41" t="s">
-        <v>261</v>
+        <v>70</v>
       </c>
       <c r="L41" t="s">
-        <v>285</v>
+        <v>264</v>
       </c>
       <c r="M41" t="s">
-        <v>45</v>
+        <v>308</v>
+      </c>
+      <c r="N41" t="s">
+        <v>270</v>
       </c>
       <c r="O41" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="P41" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="Q41" s="2" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -3987,52 +3960,52 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="C42" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="D42" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E42" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F42" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G42" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H42" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="I42" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="J42" t="s">
-        <v>248</v>
+        <v>229</v>
       </c>
       <c r="K42" t="s">
-        <v>71</v>
+        <v>237</v>
       </c>
       <c r="L42" t="s">
-        <v>286</v>
+        <v>262</v>
       </c>
       <c r="M42" t="s">
-        <v>333</v>
+        <v>54</v>
       </c>
       <c r="N42" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
       <c r="O42" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="P42" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="Q42" s="2" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -4040,52 +4013,52 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C43" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="D43" t="s">
         <v>72</v>
       </c>
       <c r="E43" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F43" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G43" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H43" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="I43" t="s">
-        <v>215</v>
+        <v>192</v>
       </c>
       <c r="J43" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="K43" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="L43" t="s">
-        <v>290</v>
+        <v>265</v>
       </c>
       <c r="M43" t="s">
-        <v>329</v>
+        <v>309</v>
       </c>
       <c r="N43" t="s">
-        <v>287</v>
+        <v>323</v>
       </c>
       <c r="O43" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="P43" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="Q43" s="2" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -4093,52 +4066,52 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C44" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D44" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E44" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F44" t="s">
         <v>84</v>
       </c>
       <c r="G44" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H44" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="I44" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="J44" t="s">
-        <v>237</v>
+        <v>219</v>
       </c>
       <c r="K44" t="s">
         <v>75</v>
       </c>
       <c r="L44" t="s">
-        <v>292</v>
+        <v>65</v>
       </c>
       <c r="M44" t="s">
-        <v>334</v>
+        <v>310</v>
       </c>
       <c r="N44" t="s">
-        <v>290</v>
+        <v>325</v>
       </c>
       <c r="O44" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="P44" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="Q44" s="2" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -4146,52 +4119,52 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="C45" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="D45" t="s">
         <v>72</v>
       </c>
       <c r="E45" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F45" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G45" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H45" t="s">
-        <v>150</v>
+        <v>172</v>
       </c>
       <c r="I45" t="s">
-        <v>211</v>
+        <v>183</v>
       </c>
       <c r="J45" t="s">
-        <v>250</v>
+        <v>231</v>
       </c>
       <c r="K45" t="s">
-        <v>260</v>
+        <v>74</v>
       </c>
       <c r="L45" t="s">
-        <v>289</v>
+        <v>255</v>
       </c>
       <c r="M45" t="s">
-        <v>335</v>
+        <v>311</v>
       </c>
       <c r="N45" t="s">
-        <v>348</v>
+        <v>323</v>
       </c>
       <c r="O45" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="P45" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="Q45" s="2" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -4199,52 +4172,52 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C46" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="D46" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E46" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F46" t="s">
         <v>83</v>
       </c>
       <c r="G46" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H46" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="I46" t="s">
-        <v>207</v>
+        <v>190</v>
       </c>
       <c r="J46" t="s">
-        <v>251</v>
+        <v>206</v>
       </c>
       <c r="K46" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="L46" t="s">
-        <v>291</v>
+        <v>266</v>
       </c>
       <c r="M46" t="s">
-        <v>336</v>
+        <v>312</v>
       </c>
       <c r="N46" t="s">
-        <v>347</v>
+        <v>325</v>
       </c>
       <c r="O46" t="s">
-        <v>355</v>
+        <v>326</v>
       </c>
       <c r="P46" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="Q46" s="2" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -4252,52 +4225,52 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C47" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D47" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E47" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F47" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G47" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H47" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="I47" t="s">
-        <v>216</v>
+        <v>187</v>
       </c>
       <c r="J47" t="s">
-        <v>252</v>
+        <v>213</v>
       </c>
       <c r="K47" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L47" t="s">
-        <v>292</v>
+        <v>249</v>
       </c>
       <c r="M47" t="s">
-        <v>268</v>
+        <v>313</v>
       </c>
       <c r="N47" t="s">
-        <v>347</v>
+        <v>78</v>
       </c>
       <c r="O47" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="P47" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="Q47" s="2" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -4305,52 +4278,52 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C48" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D48" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E48" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F48" t="s">
         <v>85</v>
       </c>
       <c r="G48" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H48" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="I48" t="s">
-        <v>217</v>
+        <v>183</v>
       </c>
       <c r="J48" t="s">
-        <v>253</v>
+        <v>231</v>
       </c>
       <c r="K48" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="L48" t="s">
-        <v>293</v>
+        <v>267</v>
       </c>
       <c r="M48" t="s">
-        <v>68</v>
+        <v>314</v>
       </c>
       <c r="N48" t="s">
-        <v>347</v>
+        <v>323</v>
       </c>
       <c r="O48" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="P48" t="s">
         <v>402</v>
       </c>
       <c r="Q48" s="2" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
     </row>
     <row r="49" spans="1:17">
@@ -4358,52 +4331,52 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="C49" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="D49" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E49" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F49" t="s">
         <v>83</v>
       </c>
       <c r="G49" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H49" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="I49" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="J49" t="s">
-        <v>245</v>
+        <v>225</v>
       </c>
       <c r="K49" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L49" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="M49" t="s">
-        <v>337</v>
+        <v>315</v>
       </c>
       <c r="N49" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O49" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="P49" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="Q49" s="2" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
     </row>
     <row r="50" spans="1:17">
@@ -4411,52 +4384,52 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="C50" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="D50" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E50" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F50" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G50" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H50" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="I50" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="J50" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="K50" t="s">
-        <v>260</v>
+        <v>74</v>
       </c>
       <c r="L50" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="M50" t="s">
-        <v>49</v>
+        <v>316</v>
       </c>
       <c r="N50" t="s">
-        <v>349</v>
+        <v>78</v>
       </c>
       <c r="O50" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="P50" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="Q50" s="2" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
     </row>
     <row r="51" spans="1:17">
@@ -4464,52 +4437,52 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="C51" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="D51" t="s">
         <v>71</v>
       </c>
       <c r="E51" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F51" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G51" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H51" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="I51" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="J51" t="s">
-        <v>240</v>
+        <v>208</v>
       </c>
       <c r="K51" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="L51" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="M51" t="s">
-        <v>338</v>
+        <v>317</v>
       </c>
       <c r="N51" t="s">
-        <v>349</v>
+        <v>266</v>
       </c>
       <c r="O51" t="s">
-        <v>355</v>
+        <v>342</v>
       </c>
       <c r="P51" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="Q51" s="2" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
     </row>
     <row r="52" spans="1:17">
@@ -4517,52 +4490,52 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="C52" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="D52" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E52" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F52" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G52" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H52" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="I52" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="J52" t="s">
-        <v>254</v>
+        <v>233</v>
       </c>
       <c r="K52" t="s">
-        <v>263</v>
+        <v>72</v>
       </c>
       <c r="L52" t="s">
-        <v>294</v>
+        <v>271</v>
       </c>
       <c r="M52" t="s">
-        <v>339</v>
+        <v>251</v>
       </c>
       <c r="N52" t="s">
-        <v>349</v>
+        <v>325</v>
       </c>
       <c r="O52" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="P52" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="Q52" s="2" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
     </row>
     <row r="53" spans="1:17">
@@ -4576,46 +4549,43 @@
         <v>67</v>
       </c>
       <c r="D53" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E53" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F53" t="s">
         <v>83</v>
       </c>
       <c r="G53" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H53" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="I53" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="J53" t="s">
-        <v>255</v>
+        <v>234</v>
       </c>
       <c r="K53" t="s">
-        <v>73</v>
+        <v>238</v>
       </c>
       <c r="L53" t="s">
-        <v>285</v>
+        <v>264</v>
       </c>
       <c r="M53" t="s">
-        <v>340</v>
-      </c>
-      <c r="N53" t="s">
-        <v>79</v>
+        <v>246</v>
       </c>
       <c r="O53" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="P53" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="Q53" s="2" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
     </row>
     <row r="54" spans="1:17">
@@ -4623,52 +4593,49 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="C54" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="D54" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E54" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F54" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G54" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H54" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="I54" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
       <c r="J54" t="s">
-        <v>256</v>
+        <v>208</v>
       </c>
       <c r="K54" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="L54" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="M54" t="s">
+        <v>258</v>
+      </c>
+      <c r="O54" t="s">
         <v>341</v>
       </c>
-      <c r="N54" t="s">
-        <v>349</v>
-      </c>
-      <c r="O54" t="s">
-        <v>350</v>
-      </c>
       <c r="P54" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="Q54" s="2" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
     </row>
     <row r="55" spans="1:17">
@@ -4676,408 +4643,49 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C55" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D55" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E55" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F55" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G55" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H55" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="I55" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="J55" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="K55" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="L55" t="s">
-        <v>292</v>
+        <v>272</v>
       </c>
       <c r="M55" t="s">
         <v>269</v>
       </c>
       <c r="O55" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="P55" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="Q55" s="2" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="56" spans="1:17">
-      <c r="A56" s="1">
-        <v>54</v>
-      </c>
-      <c r="B56" t="s">
-        <v>37</v>
-      </c>
-      <c r="C56" t="s">
-        <v>65</v>
-      </c>
-      <c r="D56" t="s">
-        <v>71</v>
-      </c>
-      <c r="E56" t="s">
-        <v>81</v>
-      </c>
-      <c r="F56" t="s">
-        <v>83</v>
-      </c>
-      <c r="G56" t="s">
-        <v>140</v>
-      </c>
-      <c r="H56" t="s">
-        <v>183</v>
-      </c>
-      <c r="I56" t="s">
-        <v>195</v>
-      </c>
-      <c r="J56" t="s">
-        <v>254</v>
-      </c>
-      <c r="K56" t="s">
-        <v>71</v>
-      </c>
-      <c r="L56" t="s">
-        <v>294</v>
-      </c>
-      <c r="M56" t="s">
-        <v>342</v>
-      </c>
-      <c r="N56" t="s">
-        <v>263</v>
-      </c>
-      <c r="O56" t="s">
-        <v>352</v>
-      </c>
-      <c r="P56" t="s">
-        <v>406</v>
-      </c>
-      <c r="Q56" s="2" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="57" spans="1:17">
-      <c r="A57" s="1">
-        <v>55</v>
-      </c>
-      <c r="B57" t="s">
-        <v>19</v>
-      </c>
-      <c r="C57" t="s">
-        <v>48</v>
-      </c>
-      <c r="D57" t="s">
-        <v>72</v>
-      </c>
-      <c r="E57" t="s">
-        <v>79</v>
-      </c>
-      <c r="F57" t="s">
-        <v>83</v>
-      </c>
-      <c r="G57" t="s">
-        <v>141</v>
-      </c>
-      <c r="H57" t="s">
-        <v>187</v>
-      </c>
-      <c r="I57" t="s">
-        <v>220</v>
-      </c>
-      <c r="J57" t="s">
-        <v>226</v>
-      </c>
-      <c r="K57" t="s">
-        <v>263</v>
-      </c>
-      <c r="L57" t="s">
-        <v>295</v>
-      </c>
-      <c r="M57" t="s">
-        <v>341</v>
-      </c>
-      <c r="N57" t="s">
-        <v>296</v>
-      </c>
-      <c r="O57" t="s">
-        <v>350</v>
-      </c>
-      <c r="P57" t="s">
-        <v>410</v>
-      </c>
-      <c r="Q57" s="2" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="58" spans="1:17">
-      <c r="A58" s="1">
-        <v>56</v>
-      </c>
-      <c r="B58" t="s">
-        <v>41</v>
-      </c>
-      <c r="C58" t="s">
-        <v>68</v>
-      </c>
-      <c r="D58" t="s">
-        <v>76</v>
-      </c>
-      <c r="E58" t="s">
-        <v>77</v>
-      </c>
-      <c r="F58" t="s">
-        <v>83</v>
-      </c>
-      <c r="G58" t="s">
-        <v>142</v>
-      </c>
-      <c r="H58" t="s">
-        <v>188</v>
-      </c>
-      <c r="I58" t="s">
-        <v>221</v>
-      </c>
-      <c r="J58" t="s">
-        <v>224</v>
-      </c>
-      <c r="K58" t="s">
-        <v>263</v>
-      </c>
-      <c r="L58" t="s">
-        <v>296</v>
-      </c>
-      <c r="M58" t="s">
-        <v>343</v>
-      </c>
-      <c r="N58" t="s">
-        <v>79</v>
-      </c>
-      <c r="O58" t="s">
-        <v>353</v>
-      </c>
-      <c r="P58" t="s">
-        <v>411</v>
-      </c>
-      <c r="Q58" s="2" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="59" spans="1:17">
-      <c r="A59" s="1">
-        <v>57</v>
-      </c>
-      <c r="B59" t="s">
-        <v>32</v>
-      </c>
-      <c r="C59" t="s">
-        <v>61</v>
-      </c>
-      <c r="D59" t="s">
-        <v>75</v>
-      </c>
-      <c r="E59" t="s">
-        <v>81</v>
-      </c>
-      <c r="F59" t="s">
-        <v>84</v>
-      </c>
-      <c r="G59" t="s">
-        <v>143</v>
-      </c>
-      <c r="H59" t="s">
-        <v>189</v>
-      </c>
-      <c r="I59" t="s">
-        <v>219</v>
-      </c>
-      <c r="J59" t="s">
-        <v>257</v>
-      </c>
-      <c r="K59" t="s">
-        <v>73</v>
-      </c>
-      <c r="L59" t="s">
-        <v>295</v>
-      </c>
-      <c r="M59" t="s">
-        <v>337</v>
-      </c>
-      <c r="O59" t="s">
-        <v>354</v>
-      </c>
-      <c r="P59" t="s">
-        <v>412</v>
-      </c>
-      <c r="Q59" s="2" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="60" spans="1:17">
-      <c r="A60" s="1">
-        <v>58</v>
-      </c>
-      <c r="B60" t="s">
-        <v>42</v>
-      </c>
-      <c r="C60" t="s">
-        <v>69</v>
-      </c>
-      <c r="D60" t="s">
-        <v>72</v>
-      </c>
-      <c r="E60" t="s">
-        <v>77</v>
-      </c>
-      <c r="F60" t="s">
-        <v>83</v>
-      </c>
-      <c r="G60" t="s">
-        <v>144</v>
-      </c>
-      <c r="H60" t="s">
-        <v>190</v>
-      </c>
-      <c r="I60" t="s">
-        <v>153</v>
-      </c>
-      <c r="J60" t="s">
-        <v>226</v>
-      </c>
-      <c r="K60" t="s">
-        <v>73</v>
-      </c>
-      <c r="L60" t="s">
-        <v>279</v>
-      </c>
-      <c r="M60" t="s">
-        <v>288</v>
-      </c>
-      <c r="O60" t="s">
-        <v>353</v>
-      </c>
-      <c r="P60" t="s">
-        <v>413</v>
-      </c>
-      <c r="Q60" s="2" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="61" spans="1:17">
-      <c r="A61" s="1">
-        <v>59</v>
-      </c>
-      <c r="B61" t="s">
-        <v>43</v>
-      </c>
-      <c r="C61" t="s">
-        <v>70</v>
-      </c>
-      <c r="D61" t="s">
-        <v>73</v>
-      </c>
-      <c r="E61" t="s">
-        <v>81</v>
-      </c>
-      <c r="F61" t="s">
-        <v>83</v>
-      </c>
-      <c r="G61" t="s">
-        <v>145</v>
-      </c>
-      <c r="H61" t="s">
-        <v>191</v>
-      </c>
-      <c r="I61" t="s">
-        <v>222</v>
-      </c>
-      <c r="J61" t="s">
-        <v>258</v>
-      </c>
-      <c r="K61" t="s">
-        <v>79</v>
-      </c>
-      <c r="L61" t="s">
-        <v>293</v>
-      </c>
-      <c r="M61" t="s">
-        <v>295</v>
-      </c>
-      <c r="O61" t="s">
-        <v>352</v>
-      </c>
-      <c r="P61" t="s">
-        <v>414</v>
-      </c>
-      <c r="Q61" s="2" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="62" spans="1:17">
-      <c r="A62" s="1">
-        <v>60</v>
-      </c>
-      <c r="B62" t="s">
-        <v>44</v>
-      </c>
-      <c r="C62" t="s">
-        <v>69</v>
-      </c>
-      <c r="D62" t="s">
-        <v>76</v>
-      </c>
-      <c r="E62" t="s">
-        <v>80</v>
-      </c>
-      <c r="F62" t="s">
-        <v>83</v>
-      </c>
-      <c r="G62" t="s">
-        <v>146</v>
-      </c>
-      <c r="H62" t="s">
-        <v>192</v>
-      </c>
-      <c r="I62" t="s">
-        <v>223</v>
-      </c>
-      <c r="J62" t="s">
-        <v>259</v>
-      </c>
-      <c r="K62" t="s">
-        <v>79</v>
-      </c>
-      <c r="L62" t="s">
-        <v>293</v>
-      </c>
-      <c r="M62" t="s">
-        <v>286</v>
-      </c>
-      <c r="O62" t="s">
-        <v>353</v>
-      </c>
-      <c r="P62" t="s">
-        <v>415</v>
-      </c>
-      <c r="Q62" s="2" t="s">
-        <v>476</v>
+        <v>465</v>
       </c>
     </row>
   </sheetData>
@@ -5136,13 +4744,6 @@
     <hyperlink ref="Q53" r:id="rId52"/>
     <hyperlink ref="Q54" r:id="rId53"/>
     <hyperlink ref="Q55" r:id="rId54"/>
-    <hyperlink ref="Q56" r:id="rId55"/>
-    <hyperlink ref="Q57" r:id="rId56"/>
-    <hyperlink ref="Q58" r:id="rId57"/>
-    <hyperlink ref="Q59" r:id="rId58"/>
-    <hyperlink ref="Q60" r:id="rId59"/>
-    <hyperlink ref="Q61" r:id="rId60"/>
-    <hyperlink ref="Q62" r:id="rId61"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
